--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Nampt-Insr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Nampt-Insr.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.161371333333333</v>
+        <v>9.508709</v>
       </c>
       <c r="H2">
-        <v>27.484114</v>
+        <v>28.526127</v>
       </c>
       <c r="I2">
-        <v>0.06605416725676619</v>
+        <v>0.05211107427675058</v>
       </c>
       <c r="J2">
-        <v>0.06778477306083093</v>
+        <v>0.05288783704580559</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.03654733333334</v>
+        <v>15.70818033333333</v>
       </c>
       <c r="N2">
-        <v>42.10964200000001</v>
+        <v>47.12454099999999</v>
       </c>
       <c r="O2">
-        <v>0.3033248635033714</v>
+        <v>0.3220467100482788</v>
       </c>
       <c r="P2">
-        <v>0.3241347232362797</v>
+        <v>0.334408980496766</v>
       </c>
       <c r="Q2">
-        <v>128.5940223585765</v>
+        <v>149.3645157091896</v>
       </c>
       <c r="R2">
-        <v>1157.346201227188</v>
+        <v>1344.280641382707</v>
       </c>
       <c r="S2">
-        <v>0.02003587126698747</v>
+        <v>0.01678220002790901</v>
       </c>
       <c r="T2">
-        <v>0.02197139865570646</v>
+        <v>0.01768616766716694</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.161371333333333</v>
+        <v>9.508709</v>
       </c>
       <c r="H3">
-        <v>27.484114</v>
+        <v>28.526127</v>
       </c>
       <c r="I3">
-        <v>0.06605416725676619</v>
+        <v>0.05211107427675058</v>
       </c>
       <c r="J3">
-        <v>0.06778477306083093</v>
+        <v>0.05288783704580559</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>17.55978</v>
       </c>
       <c r="O3">
-        <v>0.1264868951307928</v>
+        <v>0.1200026410479322</v>
       </c>
       <c r="P3">
-        <v>0.1351646359375356</v>
+        <v>0.1246091315254933</v>
       </c>
       <c r="Q3">
-        <v>53.62388837054667</v>
+        <v>55.65694604133999</v>
       </c>
       <c r="R3">
-        <v>482.61499533492</v>
+        <v>500.91251437206</v>
       </c>
       <c r="S3">
-        <v>0.008354986526758435</v>
+        <v>0.006253466541055035</v>
       </c>
       <c r="T3">
-        <v>0.009162104172875683</v>
+        <v>0.006590307442539647</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.161371333333333</v>
+        <v>9.508709</v>
       </c>
       <c r="H4">
-        <v>27.484114</v>
+        <v>28.526127</v>
       </c>
       <c r="I4">
-        <v>0.06605416725676619</v>
+        <v>0.05211107427675058</v>
       </c>
       <c r="J4">
-        <v>0.06778477306083093</v>
+        <v>0.05288783704580559</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.056607</v>
+        <v>10.959131</v>
       </c>
       <c r="N4">
-        <v>27.169821</v>
+        <v>32.877393</v>
       </c>
       <c r="O4">
-        <v>0.1957100999869823</v>
+        <v>0.2246824271585863</v>
       </c>
       <c r="P4">
-        <v>0.2091369575218488</v>
+        <v>0.2333072161810874</v>
       </c>
       <c r="Q4">
-        <v>82.970939747066</v>
+        <v>104.207187571879</v>
       </c>
       <c r="R4">
-        <v>746.7384577235939</v>
+        <v>937.8646881469111</v>
       </c>
       <c r="S4">
-        <v>0.01292746767837856</v>
+        <v>0.01170844265034169</v>
       </c>
       <c r="T4">
-        <v>0.01417630120425116</v>
+        <v>0.01233911403099589</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.161371333333333</v>
+        <v>9.508709</v>
       </c>
       <c r="H5">
-        <v>27.484114</v>
+        <v>28.526127</v>
       </c>
       <c r="I5">
-        <v>0.06605416725676619</v>
+        <v>0.05211107427675058</v>
       </c>
       <c r="J5">
-        <v>0.06778477306083093</v>
+        <v>0.05288783704580559</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.912860999999999</v>
+        <v>5.4093935</v>
       </c>
       <c r="N5">
-        <v>17.825722</v>
+        <v>10.818787</v>
       </c>
       <c r="O5">
-        <v>0.1926037993566548</v>
+        <v>0.1109025579706895</v>
       </c>
       <c r="P5">
-        <v>0.1372116976666974</v>
+        <v>0.07677315161290731</v>
       </c>
       <c r="Q5">
-        <v>81.65402926338466</v>
+        <v>51.4363486579915</v>
       </c>
       <c r="R5">
-        <v>489.9241755803079</v>
+        <v>308.618091947949</v>
       </c>
       <c r="S5">
-        <v>0.01272228357699311</v>
+        <v>0.005779251435892236</v>
       </c>
       <c r="T5">
-        <v>0.009300863787628427</v>
+        <v>0.004060365931996368</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.161371333333333</v>
+        <v>9.508709</v>
       </c>
       <c r="H6">
-        <v>27.484114</v>
+        <v>28.526127</v>
       </c>
       <c r="I6">
-        <v>0.06605416725676619</v>
+        <v>0.05211107427675058</v>
       </c>
       <c r="J6">
-        <v>0.06778477306083093</v>
+        <v>0.05288783704580559</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.416348666666666</v>
+        <v>10.84612833333333</v>
       </c>
       <c r="N6">
-        <v>25.249046</v>
+        <v>32.538385</v>
       </c>
       <c r="O6">
-        <v>0.1818743420221987</v>
+        <v>0.2223656637745133</v>
       </c>
       <c r="P6">
-        <v>0.1943519856376384</v>
+        <v>0.230901520183746</v>
       </c>
       <c r="Q6">
-        <v>77.10529540613821</v>
+        <v>103.1326780983217</v>
       </c>
       <c r="R6">
-        <v>693.9476586552439</v>
+        <v>928.194102884895</v>
       </c>
       <c r="S6">
-        <v>0.01201355820764861</v>
+        <v>0.01158771362155261</v>
       </c>
       <c r="T6">
-        <v>0.01317410524036919</v>
+        <v>0.01221188197310675</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>62.992627</v>
       </c>
       <c r="I7">
-        <v>0.1513938386298749</v>
+        <v>0.1150739272977591</v>
       </c>
       <c r="J7">
-        <v>0.1553603265399267</v>
+        <v>0.1167892084285825</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.03654733333334</v>
+        <v>15.70818033333333</v>
       </c>
       <c r="N7">
-        <v>42.10964200000001</v>
+        <v>47.12454099999999</v>
       </c>
       <c r="O7">
-        <v>0.3033248635033714</v>
+        <v>0.3220467100482788</v>
       </c>
       <c r="P7">
-        <v>0.3241347232362797</v>
+        <v>0.334408980496766</v>
       </c>
       <c r="Q7">
-        <v>294.7329968455038</v>
+        <v>329.8331815288007</v>
       </c>
       <c r="R7">
-        <v>2652.596971609535</v>
+        <v>2968.498633759206</v>
       </c>
       <c r="S7">
-        <v>0.04592151543765824</v>
+        <v>0.03705917969857815</v>
       </c>
       <c r="T7">
-        <v>0.05035767644491719</v>
+        <v>0.03905536012362657</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>62.992627</v>
       </c>
       <c r="I8">
-        <v>0.1513938386298749</v>
+        <v>0.1150739272977591</v>
       </c>
       <c r="J8">
-        <v>0.1553603265399267</v>
+        <v>0.1167892084285825</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>17.55978</v>
       </c>
       <c r="O8">
-        <v>0.1264868951307928</v>
+        <v>0.1200026410479322</v>
       </c>
       <c r="P8">
-        <v>0.1351646359375356</v>
+        <v>0.1246091315254933</v>
       </c>
       <c r="Q8">
         <v>122.9040746380066</v>
@@ -948,10 +948,10 @@
         <v>1106.13667174206</v>
       </c>
       <c r="S8">
-        <v>0.01914933659022516</v>
+        <v>0.01380917519148884</v>
       </c>
       <c r="T8">
-        <v>0.02099922197590584</v>
+        <v>0.01455300183383549</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>62.992627</v>
       </c>
       <c r="I9">
-        <v>0.1513938386298749</v>
+        <v>0.1150739272977591</v>
       </c>
       <c r="J9">
-        <v>0.1553603265399267</v>
+        <v>0.1167892084285825</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.056607</v>
+        <v>10.959131</v>
       </c>
       <c r="N9">
-        <v>27.169821</v>
+        <v>32.877393</v>
       </c>
       <c r="O9">
-        <v>0.1957100999869823</v>
+        <v>0.2246824271585863</v>
       </c>
       <c r="P9">
-        <v>0.2091369575218488</v>
+        <v>0.2333072161810874</v>
       </c>
       <c r="Q9">
-        <v>190.166488878863</v>
+        <v>230.1148171090457</v>
       </c>
       <c r="R9">
-        <v>1711.498399909767</v>
+        <v>2071.033353981411</v>
       </c>
       <c r="S9">
-        <v>0.02962930329566589</v>
+        <v>0.02585508928793123</v>
       </c>
       <c r="T9">
-        <v>0.03249158601216121</v>
+        <v>0.02724776509846536</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>62.992627</v>
       </c>
       <c r="I10">
-        <v>0.1513938386298749</v>
+        <v>0.1150739272977591</v>
       </c>
       <c r="J10">
-        <v>0.1553603265399267</v>
+        <v>0.1167892084285825</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.912860999999999</v>
+        <v>5.4093935</v>
       </c>
       <c r="N10">
-        <v>17.825722</v>
+        <v>10.818787</v>
       </c>
       <c r="O10">
-        <v>0.1926037993566548</v>
+        <v>0.1109025579706895</v>
       </c>
       <c r="P10">
-        <v>0.1372116976666974</v>
+        <v>0.07677315161290731</v>
       </c>
       <c r="Q10">
-        <v>187.1481761586157</v>
+        <v>113.5839690139082</v>
       </c>
       <c r="R10">
-        <v>1122.889056951694</v>
+        <v>681.503814083449</v>
       </c>
       <c r="S10">
-        <v>0.0291590285193022</v>
+        <v>0.01276199289305464</v>
       </c>
       <c r="T10">
-        <v>0.02131725415459581</v>
+        <v>0.008966275605438993</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>62.992627</v>
       </c>
       <c r="I11">
-        <v>0.1513938386298749</v>
+        <v>0.1150739272977591</v>
       </c>
       <c r="J11">
-        <v>0.1553603265399267</v>
+        <v>0.1167892084285825</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.416348666666666</v>
+        <v>10.84612833333333</v>
       </c>
       <c r="N11">
-        <v>25.249046</v>
+        <v>32.538385</v>
       </c>
       <c r="O11">
-        <v>0.1818743420221987</v>
+        <v>0.2223656637745133</v>
       </c>
       <c r="P11">
-        <v>0.1943519856376384</v>
+        <v>0.230901520183746</v>
       </c>
       <c r="Q11">
-        <v>176.7226374204268</v>
+        <v>227.7420388319327</v>
       </c>
       <c r="R11">
-        <v>1590.503736783842</v>
+        <v>2049.678349487395</v>
       </c>
       <c r="S11">
-        <v>0.02753465478702342</v>
+        <v>0.02558849022670629</v>
       </c>
       <c r="T11">
-        <v>0.03019458795234664</v>
+        <v>0.02696680576721605</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>56.49372733333333</v>
+        <v>76.01018666666667</v>
       </c>
       <c r="H12">
-        <v>169.481182</v>
+        <v>228.03056</v>
       </c>
       <c r="I12">
-        <v>0.4073239669542351</v>
+        <v>0.4165625936366697</v>
       </c>
       <c r="J12">
-        <v>0.4179957723924222</v>
+        <v>0.4227718364551835</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>14.03654733333334</v>
+        <v>15.70818033333333</v>
       </c>
       <c r="N12">
-        <v>42.10964200000001</v>
+        <v>47.12454099999999</v>
       </c>
       <c r="O12">
-        <v>0.3033248635033714</v>
+        <v>0.3220467100482788</v>
       </c>
       <c r="P12">
-        <v>0.3241347232362797</v>
+        <v>0.334408980496766</v>
       </c>
       <c r="Q12">
-        <v>792.9768777507607</v>
+        <v>1193.981719330329</v>
       </c>
       <c r="R12">
-        <v>7136.791899756845</v>
+        <v>10745.83547397296</v>
       </c>
       <c r="S12">
-        <v>0.1235514866780451</v>
+        <v>0.1341526128098675</v>
       </c>
       <c r="T12">
-        <v>0.1354869439983527</v>
+        <v>0.1413786988117234</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>56.49372733333333</v>
+        <v>76.01018666666667</v>
       </c>
       <c r="H13">
-        <v>169.481182</v>
+        <v>228.03056</v>
       </c>
       <c r="I13">
-        <v>0.4073239669542351</v>
+        <v>0.4165625936366697</v>
       </c>
       <c r="J13">
-        <v>0.4179957723924222</v>
+        <v>0.4227718364551835</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>17.55978</v>
       </c>
       <c r="O13">
-        <v>0.1264868951307928</v>
+        <v>0.1200026410479322</v>
       </c>
       <c r="P13">
-        <v>0.1351646359375356</v>
+        <v>0.1246091315254933</v>
       </c>
       <c r="Q13">
-        <v>330.6724744511067</v>
+        <v>444.9073852085333</v>
       </c>
       <c r="R13">
-        <v>2976.05227005996</v>
+        <v>4004.1664668768</v>
       </c>
       <c r="S13">
-        <v>0.05152114389239886</v>
+        <v>0.04998861139817693</v>
       </c>
       <c r="T13">
-        <v>0.05649824639885075</v>
+        <v>0.05268123137411832</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>56.49372733333333</v>
+        <v>76.01018666666667</v>
       </c>
       <c r="H14">
-        <v>169.481182</v>
+        <v>228.03056</v>
       </c>
       <c r="I14">
-        <v>0.4073239669542351</v>
+        <v>0.4165625936366697</v>
       </c>
       <c r="J14">
-        <v>0.4179957723924222</v>
+        <v>0.4227718364551835</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>9.056607</v>
+        <v>10.959131</v>
       </c>
       <c r="N14">
-        <v>27.169821</v>
+        <v>32.877393</v>
       </c>
       <c r="O14">
-        <v>0.1957100999869823</v>
+        <v>0.2246824271585863</v>
       </c>
       <c r="P14">
-        <v>0.2091369575218488</v>
+        <v>0.2333072161810874</v>
       </c>
       <c r="Q14">
-        <v>511.641486423158</v>
+        <v>833.0055930144534</v>
       </c>
       <c r="R14">
-        <v>4604.773377808421</v>
+        <v>7497.050337130081</v>
       </c>
       <c r="S14">
-        <v>0.07971741429970763</v>
+        <v>0.09359429460176283</v>
       </c>
       <c r="T14">
-        <v>0.08741836409514636</v>
+        <v>0.09863572024312482</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>56.49372733333333</v>
+        <v>76.01018666666667</v>
       </c>
       <c r="H15">
-        <v>169.481182</v>
+        <v>228.03056</v>
       </c>
       <c r="I15">
-        <v>0.4073239669542351</v>
+        <v>0.4165625936366697</v>
       </c>
       <c r="J15">
-        <v>0.4179957723924222</v>
+        <v>0.4227718364551835</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.912860999999999</v>
+        <v>5.4093935</v>
       </c>
       <c r="N15">
-        <v>17.825722</v>
+        <v>10.818787</v>
       </c>
       <c r="O15">
-        <v>0.1926037993566548</v>
+        <v>0.1109025579706895</v>
       </c>
       <c r="P15">
-        <v>0.1372116976666974</v>
+        <v>0.07677315161290731</v>
       </c>
       <c r="Q15">
-        <v>503.5207390939006</v>
+        <v>411.1690096884533</v>
       </c>
       <c r="R15">
-        <v>3021.124434563404</v>
+        <v>2467.01405813072</v>
       </c>
       <c r="S15">
-        <v>0.07845214360441019</v>
+        <v>0.04619785718921152</v>
       </c>
       <c r="T15">
-        <v>0.05735390954746668</v>
+        <v>0.03245752629784106</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>56.49372733333333</v>
+        <v>76.01018666666667</v>
       </c>
       <c r="H16">
-        <v>169.481182</v>
+        <v>228.03056</v>
       </c>
       <c r="I16">
-        <v>0.4073239669542351</v>
+        <v>0.4165625936366697</v>
       </c>
       <c r="J16">
-        <v>0.4179957723924222</v>
+        <v>0.4227718364551835</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.416348666666666</v>
+        <v>10.84612833333333</v>
       </c>
       <c r="N16">
-        <v>25.249046</v>
+        <v>32.538385</v>
       </c>
       <c r="O16">
-        <v>0.1818743420221987</v>
+        <v>0.2223656637745133</v>
       </c>
       <c r="P16">
-        <v>0.1943519856376384</v>
+        <v>0.230901520183746</v>
       </c>
       <c r="Q16">
-        <v>475.4709067169302</v>
+        <v>824.4162392272889</v>
       </c>
       <c r="R16">
-        <v>4279.238160452372</v>
+        <v>7419.7461530456</v>
       </c>
       <c r="S16">
-        <v>0.07408177847967332</v>
+        <v>0.09262921763765089</v>
       </c>
       <c r="T16">
-        <v>0.08123830835260561</v>
+        <v>0.09761865972837591</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>10.6230085</v>
+        <v>8.0398025</v>
       </c>
       <c r="H17">
-        <v>21.246017</v>
+        <v>16.079605</v>
       </c>
       <c r="I17">
-        <v>0.07659267970898195</v>
+        <v>0.04406094930951247</v>
       </c>
       <c r="J17">
-        <v>0.05239959493660797</v>
+        <v>0.02981181178226265</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>14.03654733333334</v>
+        <v>15.70818033333333</v>
       </c>
       <c r="N17">
-        <v>42.10964200000001</v>
+        <v>47.12454099999999</v>
       </c>
       <c r="O17">
-        <v>0.3033248635033714</v>
+        <v>0.3220467100482788</v>
       </c>
       <c r="P17">
-        <v>0.3241347232362797</v>
+        <v>0.334408980496766</v>
       </c>
       <c r="Q17">
-        <v>149.1103616326524</v>
+        <v>126.2906675143842</v>
       </c>
       <c r="R17">
-        <v>894.6621697959142</v>
+        <v>757.7440050863049</v>
       </c>
       <c r="S17">
-        <v>0.02323246411808439</v>
+        <v>0.01418968376673247</v>
       </c>
       <c r="T17">
-        <v>0.01698452820247059</v>
+        <v>0.009969337584867932</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>10.6230085</v>
+        <v>8.0398025</v>
       </c>
       <c r="H18">
-        <v>21.246017</v>
+        <v>16.079605</v>
       </c>
       <c r="I18">
-        <v>0.07659267970898195</v>
+        <v>0.04406094930951247</v>
       </c>
       <c r="J18">
-        <v>0.05239959493660797</v>
+        <v>0.02981181178226265</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>17.55978</v>
       </c>
       <c r="O18">
-        <v>0.1264868951307928</v>
+        <v>0.1200026410479322</v>
       </c>
       <c r="P18">
-        <v>0.1351646359375356</v>
+        <v>0.1246091315254933</v>
       </c>
       <c r="Q18">
-        <v>62.17923073271</v>
+        <v>47.05905438115</v>
       </c>
       <c r="R18">
-        <v>373.07538439626</v>
+        <v>282.3543262869</v>
       </c>
       <c r="S18">
-        <v>0.009687970246136405</v>
+        <v>0.005287430284220563</v>
       </c>
       <c r="T18">
-        <v>0.007082572172880951</v>
+        <v>0.003714823975389219</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>10.6230085</v>
+        <v>8.0398025</v>
       </c>
       <c r="H19">
-        <v>21.246017</v>
+        <v>16.079605</v>
       </c>
       <c r="I19">
-        <v>0.07659267970898195</v>
+        <v>0.04406094930951247</v>
       </c>
       <c r="J19">
-        <v>0.05239959493660797</v>
+        <v>0.02981181178226265</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>9.056607</v>
+        <v>10.959131</v>
       </c>
       <c r="N19">
-        <v>27.169821</v>
+        <v>32.877393</v>
       </c>
       <c r="O19">
-        <v>0.1957100999869823</v>
+        <v>0.2246824271585863</v>
       </c>
       <c r="P19">
-        <v>0.2091369575218488</v>
+        <v>0.2333072161810874</v>
       </c>
       <c r="Q19">
-        <v>96.2084131421595</v>
+        <v>88.10924881162751</v>
       </c>
       <c r="R19">
-        <v>577.250478852957</v>
+        <v>528.6554928697651</v>
       </c>
       <c r="S19">
-        <v>0.01498996100411577</v>
+        <v>0.0098997210337727</v>
       </c>
       <c r="T19">
-        <v>0.01095869186041946</v>
+        <v>0.006955310816234241</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>10.6230085</v>
+        <v>8.0398025</v>
       </c>
       <c r="H20">
-        <v>21.246017</v>
+        <v>16.079605</v>
       </c>
       <c r="I20">
-        <v>0.07659267970898195</v>
+        <v>0.04406094930951247</v>
       </c>
       <c r="J20">
-        <v>0.05239959493660797</v>
+        <v>0.02981181178226265</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.912860999999999</v>
+        <v>5.4093935</v>
       </c>
       <c r="N20">
-        <v>17.825722</v>
+        <v>10.818787</v>
       </c>
       <c r="O20">
-        <v>0.1926037993566548</v>
+        <v>0.1109025579706895</v>
       </c>
       <c r="P20">
-        <v>0.1372116976666974</v>
+        <v>0.07677315161290731</v>
       </c>
       <c r="Q20">
-        <v>94.6813981623185</v>
+        <v>43.49045538478375</v>
       </c>
       <c r="R20">
-        <v>378.725592649274</v>
+        <v>173.961821539135</v>
       </c>
       <c r="S20">
-        <v>0.01475204111485729</v>
+        <v>0.004886471985041817</v>
       </c>
       <c r="T20">
-        <v>0.00718983737829926</v>
+        <v>0.002288746745815107</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>10.6230085</v>
+        <v>8.0398025</v>
       </c>
       <c r="H21">
-        <v>21.246017</v>
+        <v>16.079605</v>
       </c>
       <c r="I21">
-        <v>0.07659267970898195</v>
+        <v>0.04406094930951247</v>
       </c>
       <c r="J21">
-        <v>0.05239959493660797</v>
+        <v>0.02981181178226265</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>8.416348666666666</v>
+        <v>10.84612833333333</v>
       </c>
       <c r="N21">
-        <v>25.249046</v>
+        <v>32.538385</v>
       </c>
       <c r="O21">
-        <v>0.1818743420221987</v>
+        <v>0.2223656637745133</v>
       </c>
       <c r="P21">
-        <v>0.1943519856376384</v>
+        <v>0.230901520183746</v>
       </c>
       <c r="Q21">
-        <v>89.40694342496367</v>
+        <v>87.20072968965417</v>
       </c>
       <c r="R21">
-        <v>536.441660549782</v>
+        <v>523.204378137925</v>
       </c>
       <c r="S21">
-        <v>0.0139302432257881</v>
+        <v>0.009797642239744922</v>
       </c>
       <c r="T21">
-        <v>0.0101839653225377</v>
+        <v>0.006883592659956157</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>41.419178</v>
+        <v>67.91378400000001</v>
       </c>
       <c r="H22">
-        <v>124.257534</v>
+        <v>203.741352</v>
       </c>
       <c r="I22">
-        <v>0.298635347450142</v>
+        <v>0.372191455479308</v>
       </c>
       <c r="J22">
-        <v>0.3064595330702122</v>
+        <v>0.3777393062881658</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>14.03654733333334</v>
+        <v>15.70818033333333</v>
       </c>
       <c r="N22">
-        <v>42.10964200000001</v>
+        <v>47.12454099999999</v>
       </c>
       <c r="O22">
-        <v>0.3033248635033714</v>
+        <v>0.3220467100482788</v>
       </c>
       <c r="P22">
-        <v>0.3241347232362797</v>
+        <v>0.334408980496766</v>
       </c>
       <c r="Q22">
-        <v>581.3822525047588</v>
+        <v>1066.801966191048</v>
       </c>
       <c r="R22">
-        <v>5232.440272542829</v>
+        <v>9601.217695719432</v>
       </c>
       <c r="S22">
-        <v>0.09058352600259621</v>
+        <v>0.1198630337451916</v>
       </c>
       <c r="T22">
-        <v>0.09933417593483276</v>
+        <v>0.1263194163093812</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>41.419178</v>
+        <v>67.91378400000001</v>
       </c>
       <c r="H23">
-        <v>124.257534</v>
+        <v>203.741352</v>
       </c>
       <c r="I23">
-        <v>0.298635347450142</v>
+        <v>0.372191455479308</v>
       </c>
       <c r="J23">
-        <v>0.3064595330702122</v>
+        <v>0.3777393062881658</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>17.55978</v>
       </c>
       <c r="O23">
-        <v>0.1264868951307928</v>
+        <v>0.1200026410479322</v>
       </c>
       <c r="P23">
-        <v>0.1351646359375356</v>
+        <v>0.1246091315254933</v>
       </c>
       <c r="Q23">
-        <v>242.43721782028</v>
+        <v>397.51703533584</v>
       </c>
       <c r="R23">
-        <v>2181.93496038252</v>
+        <v>3577.65331802256</v>
       </c>
       <c r="S23">
-        <v>0.03777345787527399</v>
+        <v>0.04466395763299085</v>
       </c>
       <c r="T23">
-        <v>0.04142249121702239</v>
+        <v>0.04706976689961067</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>41.419178</v>
+        <v>67.91378400000001</v>
       </c>
       <c r="H24">
-        <v>124.257534</v>
+        <v>203.741352</v>
       </c>
       <c r="I24">
-        <v>0.298635347450142</v>
+        <v>0.372191455479308</v>
       </c>
       <c r="J24">
-        <v>0.3064595330702122</v>
+        <v>0.3777393062881658</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>9.056607</v>
+        <v>10.959131</v>
       </c>
       <c r="N24">
-        <v>27.169821</v>
+        <v>32.877393</v>
       </c>
       <c r="O24">
-        <v>0.1957100999869823</v>
+        <v>0.2246824271585863</v>
       </c>
       <c r="P24">
-        <v>0.2091369575218488</v>
+        <v>0.2333072161810874</v>
       </c>
       <c r="Q24">
-        <v>375.117217409046</v>
+        <v>744.2760555617042</v>
       </c>
       <c r="R24">
-        <v>3376.054956681414</v>
+        <v>6698.484500055337</v>
       </c>
       <c r="S24">
-        <v>0.05844595370911449</v>
+        <v>0.08362487958477785</v>
       </c>
       <c r="T24">
-        <v>0.06409201434987058</v>
+        <v>0.08812930599226708</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>41.419178</v>
+        <v>67.91378400000001</v>
       </c>
       <c r="H25">
-        <v>124.257534</v>
+        <v>203.741352</v>
       </c>
       <c r="I25">
-        <v>0.298635347450142</v>
+        <v>0.372191455479308</v>
       </c>
       <c r="J25">
-        <v>0.3064595330702122</v>
+        <v>0.3777393062881658</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.912860999999999</v>
+        <v>5.4093935</v>
       </c>
       <c r="N25">
-        <v>17.825722</v>
+        <v>10.818787</v>
       </c>
       <c r="O25">
-        <v>0.1926037993566548</v>
+        <v>0.1109025579706895</v>
       </c>
       <c r="P25">
-        <v>0.1372116976666974</v>
+        <v>0.07677315161290731</v>
       </c>
       <c r="Q25">
-        <v>369.1633762482579</v>
+        <v>367.3723817300041</v>
       </c>
       <c r="R25">
-        <v>2214.980257489548</v>
+        <v>2204.234290380024</v>
       </c>
       <c r="S25">
-        <v>0.05751830254109204</v>
+        <v>0.04127698446748925</v>
       </c>
       <c r="T25">
-        <v>0.04204983279870721</v>
+        <v>0.02900023703181578</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>41.419178</v>
+        <v>67.91378400000001</v>
       </c>
       <c r="H26">
-        <v>124.257534</v>
+        <v>203.741352</v>
       </c>
       <c r="I26">
-        <v>0.298635347450142</v>
+        <v>0.372191455479308</v>
       </c>
       <c r="J26">
-        <v>0.3064595330702122</v>
+        <v>0.3777393062881658</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>8.416348666666666</v>
+        <v>10.84612833333333</v>
       </c>
       <c r="N26">
-        <v>25.249046</v>
+        <v>32.538385</v>
       </c>
       <c r="O26">
-        <v>0.1818743420221987</v>
+        <v>0.2223656637745133</v>
       </c>
       <c r="P26">
-        <v>0.1943519856376384</v>
+        <v>0.230901520183746</v>
       </c>
       <c r="Q26">
-        <v>348.5982435347292</v>
+        <v>736.60161686628</v>
       </c>
       <c r="R26">
-        <v>3137.384191812564</v>
+        <v>6629.41455179652</v>
       </c>
       <c r="S26">
-        <v>0.05431410732206526</v>
+        <v>0.08276260004885853</v>
       </c>
       <c r="T26">
-        <v>0.05956101876977925</v>
+        <v>0.08722058005509113</v>
       </c>
     </row>
   </sheetData>
